--- a/data/testdata.xlsx
+++ b/data/testdata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="10290" windowHeight="6495" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16380" windowHeight="6495" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
